--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -425,10 +425,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.020625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="13.980625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="2.900625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="15.970625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="15.950625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="2.900625" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -425,11 +425,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.630625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="2.700625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="11.980625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="3.550625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="13.370625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="2.700625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.450625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="3.700625" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -425,11 +425,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.980625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="3.550625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="15.350625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="4.380625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="13.450625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="3.700625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="17.260625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="4.570625" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -425,11 +425,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.350625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="4.380625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="4.510625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="17.260625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="4.570625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="18.020625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="4.700625" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -425,11 +425,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="4.510625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="15.063203" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="4.323881" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="18.020625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="4.700625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="16.934162" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="4.505971" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -426,10 +426,10 @@
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="14.020625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="2.900625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="3.020625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="15.970625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="2.900625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="15.980625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="3.020625" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -437,13 +437,13 @@
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="n">
+      <x:c r="B1" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="n">
+      <x:c r="E1" s="1">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -462,21 +462,21 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="B5" s="2" t="s"/>
+      <x:c r="B5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="3" t="s"/>
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="3" t="s"/>
+      <x:c r="A6" s="3"/>
+      <x:c r="B6" s="3"/>
+      <x:c r="C6" s="3"/>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="B7" s="4" t="s"/>
+      <x:c r="B7" s="4"/>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="B8" s="4" t="s"/>
+      <x:c r="B8" s="4"/>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="B9" s="4" t="s"/>
+      <x:c r="B9" s="4"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Red's Row:</x:t>
   </x:si>
@@ -425,11 +425,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.020625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="3.020625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="13.853482" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="1.853482" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="15.980625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="3.020625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="15.710625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="1.853482" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Current Row Column" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Current Row Column" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
